--- a/biology/Médecine/Artère_digitale_plantaire_propre/Artère_digitale_plantaire_propre.xlsx
+++ b/biology/Médecine/Artère_digitale_plantaire_propre/Artère_digitale_plantaire_propre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_digitale_plantaire_propre</t>
+          <t>Artère_digitale_plantaire_propre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artères digitales plantaires propres sont dix artères du membre inférieur situées dans le pied. Chaque orteil possède deux artères digitales plantaires propres : une médiale et une latérale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_digitale_plantaire_propre</t>
+          <t>Artère_digitale_plantaire_propre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère digitale plantaire propre médiale du premier orteil nait de la jonction entre les artères plantaires latérale et profonde.
 L'artère digitale plantaire propre latérale du cinquième orteil nait de l'artère plantaire latérale près de la base du cinquième métatarsien.
